--- a/runs/run184/NotionalETEOutput184.xlsx
+++ b/runs/run184/NotionalETEOutput184.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER3_State_Update</t>
+    <t>Missile_SOMERSAULT2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3_188.MISSILE_BRAVER3_188</t>
+    <t>MISSILE_SOMERSAULT2_41.MISSILE_SOMERSAULT2_41</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3</t>
+    <t>MISSILE_SOMERSAULT2</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I2">
-        <v>-1749.347565829277</v>
+        <v>-815.1843689477701</v>
       </c>
       <c r="J2">
-        <v>1559.573061417617</v>
+        <v>1648.510405913597</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I3">
-        <v>-1714.810786826763</v>
+        <v>-799.090458882902</v>
       </c>
       <c r="J3">
-        <v>1521.635208214144</v>
+        <v>1608.409081178544</v>
       </c>
       <c r="K3">
-        <v>368.5246127381413</v>
+        <v>431.2289315436727</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I4">
-        <v>-1679.423571414568</v>
+        <v>-782.6002510888125</v>
       </c>
       <c r="J4">
-        <v>1483.69735501067</v>
+        <v>1568.307756443491</v>
       </c>
       <c r="K4">
-        <v>718.6728990289781</v>
+        <v>840.9548118781183</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I5">
-        <v>-1643.164978378488</v>
+        <v>-765.7039870985062</v>
       </c>
       <c r="J5">
-        <v>1445.759501807197</v>
+        <v>1528.206431708438</v>
       </c>
       <c r="K5">
-        <v>1050.444858872513</v>
+        <v>1229.17764100334</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I6">
-        <v>-1606.013550846189</v>
+        <v>-748.3916681517168</v>
       </c>
       <c r="J6">
-        <v>1407.821648603724</v>
+        <v>1488.105106973386</v>
       </c>
       <c r="K6">
-        <v>1363.840492268744</v>
+        <v>1595.897418919335</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I7">
-        <v>-1567.947303589592</v>
+        <v>-730.6530492779037</v>
       </c>
       <c r="J7">
-        <v>1369.88379540025</v>
+        <v>1448.003782238332</v>
       </c>
       <c r="K7">
-        <v>1658.859799217674</v>
+        <v>1941.114145626106</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I8">
-        <v>-1528.943710014608</v>
+        <v>-712.4776332335533</v>
       </c>
       <c r="J8">
-        <v>1331.945942196777</v>
+        <v>1407.902457503279</v>
       </c>
       <c r="K8">
-        <v>1935.502779719299</v>
+        <v>2264.827821123651</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G9">
-        <v>-107.7831788560065</v>
+        <v>-78.62826370048769</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I9">
-        <v>-1488.979688830488</v>
+        <v>-693.8546642901869</v>
       </c>
       <c r="J9">
-        <v>1294.008088993303</v>
+        <v>1367.801132768227</v>
       </c>
       <c r="K9">
-        <v>2193.769433773622</v>
+        <v>2567.038445411971</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>219.7779873117293</v>
+        <v>281.5003414721369</v>
       </c>
       <c r="G10">
-        <v>-89.98514212999355</v>
+        <v>-65.6445241235219</v>
       </c>
       <c r="H10">
-        <v>934.5664140213912</v>
+        <v>1287.147782495977</v>
       </c>
       <c r="I10">
-        <v>-1448.031590390935</v>
+        <v>-674.7731218694075</v>
       </c>
       <c r="J10">
-        <v>1256.070235789829</v>
+        <v>1327.699808033174</v>
       </c>
       <c r="K10">
-        <v>2433.659761380642</v>
+        <v>2847.746018491065</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>170.573356675592</v>
+        <v>218.4771038153244</v>
       </c>
       <c r="G11">
-        <v>-72.18710540398057</v>
+        <v>-52.66078454655613</v>
       </c>
       <c r="H11">
-        <v>1151.37953332479</v>
+        <v>1585.757406745772</v>
       </c>
       <c r="I11">
-        <v>-1406.075182698866</v>
+        <v>-655.2217140212133</v>
       </c>
       <c r="J11">
-        <v>1218.132382586356</v>
+        <v>1287.598483298121</v>
       </c>
       <c r="K11">
-        <v>2655.173762540357</v>
+        <v>3106.950540360933</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.6681045475901</v>
+        <v>181.4541132788355</v>
       </c>
       <c r="G12">
-        <v>-54.38906867796759</v>
+        <v>-39.67704496959036</v>
       </c>
       <c r="H12">
-        <v>1280.524515425772</v>
+        <v>1763.624570424902</v>
       </c>
       <c r="I12">
-        <v>-1363.085637066569</v>
+        <v>-635.1888707417229</v>
       </c>
       <c r="J12">
-        <v>1180.194529382883</v>
+        <v>1247.497158563068</v>
       </c>
       <c r="K12">
-        <v>2858.311437252771</v>
+        <v>3344.652011021577</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.4209888078072</v>
+        <v>158.082485508194</v>
       </c>
       <c r="G13">
-        <v>-36.59103195195461</v>
+        <v>-26.69330539262458</v>
       </c>
       <c r="H13">
-        <v>1372.81570555769</v>
+        <v>1890.73421072436</v>
       </c>
       <c r="I13">
-        <v>-1319.037513422732</v>
+        <v>-614.6627371263526</v>
       </c>
       <c r="J13">
-        <v>1142.256676179409</v>
+        <v>1207.395833828015</v>
       </c>
       <c r="K13">
-        <v>3043.072785517882</v>
+        <v>3560.850430472995</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.6955243602738</v>
+        <v>141.7832071719555</v>
       </c>
       <c r="G14">
-        <v>-18.79299522594163</v>
+        <v>-13.7095658156588</v>
       </c>
       <c r="H14">
-        <v>1444.682805868374</v>
+        <v>1989.714419526509</v>
       </c>
       <c r="I14">
-        <v>-1273.904745257697</v>
+        <v>-593.6311663544008</v>
       </c>
       <c r="J14">
-        <v>1104.318822975936</v>
+        <v>1167.294509092962</v>
       </c>
       <c r="K14">
-        <v>3209.45780733569</v>
+        <v>3755.545798715188</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.2019467982343</v>
+        <v>129.6234574254269</v>
       </c>
       <c r="G15">
-        <v>-0.994958499928666</v>
+        <v>-0.7258262386930252</v>
       </c>
       <c r="H15">
-        <v>1503.547535543251</v>
+        <v>2070.786888140289</v>
       </c>
       <c r="I15">
-        <v>-1227.660624197983</v>
+        <v>-572.0817125008799</v>
       </c>
       <c r="J15">
-        <v>1066.380969772462</v>
+        <v>1127.193184357909</v>
       </c>
       <c r="K15">
-        <v>3357.466502706194</v>
+        <v>3928.738115748155</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.77929488352197</v>
+        <v>120.1162311823518</v>
       </c>
       <c r="G16">
-        <v>16.80307822608432</v>
+        <v>12.25791333827276</v>
       </c>
       <c r="H16">
-        <v>1553.401664660867</v>
+        <v>2139.449351052785</v>
       </c>
       <c r="I16">
-        <v>-1180.277784200985</v>
+        <v>-550.00162317135</v>
       </c>
       <c r="J16">
-        <v>1028.443116568989</v>
+        <v>1087.091859622856</v>
       </c>
       <c r="K16">
-        <v>3487.098871629396</v>
+        <v>4080.427381571897</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.77382902351208</v>
+        <v>112.4241929078625</v>
       </c>
       <c r="G17">
-        <v>34.6011149520973</v>
+        <v>25.24165291523854</v>
       </c>
       <c r="H17">
-        <v>1596.64104188033</v>
+        <v>2199.00153233122</v>
       </c>
       <c r="I17">
-        <v>-1131.728185360474</v>
+        <v>-527.3778319553902</v>
       </c>
       <c r="J17">
-        <v>990.5052633655152</v>
+        <v>1046.990534887803</v>
       </c>
       <c r="K17">
-        <v>3598.354914105294</v>
+        <v>4210.613596186413</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.78715249234017</v>
+        <v>106.037060313255</v>
       </c>
       <c r="G18">
-        <v>52.39915167811026</v>
+        <v>38.22539249220431</v>
       </c>
       <c r="H18">
-        <v>1634.817133268821</v>
+        <v>2251.58021549149</v>
       </c>
       <c r="I18">
-        <v>-1081.983097313328</v>
+        <v>-504.1969506942438</v>
       </c>
       <c r="J18">
-        <v>952.5674101620417</v>
+        <v>1006.88921015275</v>
       </c>
       <c r="K18">
-        <v>3691.23463013389</v>
+        <v>4319.296759591704</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.561319332962</v>
+        <v>100.6244460113414</v>
       </c>
       <c r="G19">
-        <v>70.19718840412325</v>
+        <v>51.2091320691701</v>
       </c>
       <c r="H19">
-        <v>1668.992417193586</v>
+        <v>2298.648717269389</v>
       </c>
       <c r="I19">
-        <v>-1031.013082237663</v>
+        <v>-480.4452615580611</v>
       </c>
       <c r="J19">
-        <v>914.6295569585682</v>
+        <v>966.7878854176972</v>
       </c>
       <c r="K19">
-        <v>3765.738019715183</v>
+        <v>4406.476871787771</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.92117633998863</v>
+        <v>95.96200684687685</v>
       </c>
       <c r="G20">
-        <v>87.99522513013622</v>
+        <v>64.19287164613587</v>
       </c>
       <c r="H20">
-        <v>1699.926476950162</v>
+        <v>2341.253186916384</v>
       </c>
       <c r="I20">
-        <v>-978.7879774323127</v>
+        <v>-456.1087089280533</v>
       </c>
       <c r="J20">
-        <v>876.6917037550947</v>
+        <v>926.6865606826444</v>
       </c>
       <c r="K20">
-        <v>3821.865082849172</v>
+        <v>4472.15393277461</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.743143414621</v>
+        <v>91.89145653998114</v>
       </c>
       <c r="G21">
-        <v>105.7932618561492</v>
+        <v>77.17661122310165</v>
       </c>
       <c r="H21">
-        <v>1728.18120842037</v>
+        <v>2380.167505269008</v>
       </c>
       <c r="I21">
-        <v>-925.2768774673468</v>
+        <v>-431.1728910787495</v>
       </c>
       <c r="J21">
-        <v>838.7538505516212</v>
+        <v>886.5852359475914</v>
       </c>
       <c r="K21">
-        <v>3859.615819535859</v>
+        <v>4516.327942552225</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.93724071205925</v>
+        <v>88.29754534546102</v>
       </c>
       <c r="G22">
-        <v>123.5912985821622</v>
+        <v>90.16035080006743</v>
       </c>
       <c r="H22">
-        <v>1754.183976737955</v>
+        <v>2415.98026836063</v>
       </c>
       <c r="I22">
-        <v>-870.4481158950526</v>
+        <v>-405.6230516554382</v>
       </c>
       <c r="J22">
-        <v>800.8159973481479</v>
+        <v>846.4839112125386</v>
       </c>
       <c r="K22">
-        <v>3878.990229775243</v>
+        <v>4538.998901120614</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.43620796988208</v>
+        <v>85.09412365811401</v>
       </c>
       <c r="G23">
-        <v>141.3893353081752</v>
+        <v>103.1440903770332</v>
       </c>
       <c r="H23">
-        <v>1778.267406458616</v>
+        <v>2449.149589122394</v>
       </c>
       <c r="I23">
-        <v>-814.2692465105763</v>
+        <v>-379.4440709417493</v>
       </c>
       <c r="J23">
-        <v>762.8781441446744</v>
+        <v>806.3825864774856</v>
       </c>
       <c r="K23">
-        <v>3879.988313567323</v>
+        <v>4540.166808479778</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.18863506543767</v>
+        <v>82.21534335885127</v>
       </c>
       <c r="G24">
-        <v>159.1873720341881</v>
+        <v>116.127829953999</v>
       </c>
       <c r="H24">
-        <v>1800.695468317752</v>
+        <v>2480.03902582219</v>
       </c>
       <c r="I24">
-        <v>-756.7070241511198</v>
+        <v>-352.6204569122064</v>
       </c>
       <c r="J24">
-        <v>724.9402909412008</v>
+        <v>766.2812617424325</v>
       </c>
       <c r="K24">
-        <v>3862.610070912101</v>
+        <v>4519.831664629717</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.1544682307126</v>
+        <v>79.60990199690899</v>
       </c>
       <c r="G25">
-        <v>176.9854087602011</v>
+        <v>129.1115695309648</v>
       </c>
       <c r="H25">
-        <v>1821.681162660094</v>
+        <v>2508.941936874443</v>
       </c>
       <c r="I25">
-        <v>-697.7273850223346</v>
+        <v>-325.1363360644582</v>
       </c>
       <c r="J25">
-        <v>687.0024377377274</v>
+        <v>726.1799370073797</v>
       </c>
       <c r="K25">
-        <v>3826.855501809575</v>
+        <v>4477.993469570431</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.30197950502817</v>
+        <v>77.23716114496099</v>
       </c>
       <c r="G26">
-        <v>194.7834454862141</v>
+        <v>142.0953091079305</v>
       </c>
       <c r="H26">
-        <v>1841.398852207271</v>
+        <v>2536.098466357872</v>
       </c>
       <c r="I26">
-        <v>-637.2954265402764</v>
+        <v>-296.9754440257619</v>
       </c>
       <c r="J26">
-        <v>649.0645845342539</v>
+        <v>686.0786122723267</v>
       </c>
       <c r="K26">
-        <v>3772.724606259747</v>
+        <v>4414.652223301919</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.60566837250586</v>
+        <v>75.0644587333645</v>
       </c>
       <c r="G27">
-        <v>212.5814822122271</v>
+        <v>155.0790486848963</v>
       </c>
       <c r="H27">
-        <v>1859.993076600702</v>
+        <v>2561.707683997368</v>
       </c>
       <c r="I27">
-        <v>-575.3753866769799</v>
+        <v>-268.1211159281584</v>
       </c>
       <c r="J27">
-        <v>611.1267313307803</v>
+        <v>645.9772875372738</v>
       </c>
       <c r="K27">
-        <v>3700.217384262615</v>
+        <v>4329.807925824181</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.04477495523816</v>
+        <v>73.06520468914923</v>
       </c>
       <c r="G28">
-        <v>230.37951893824</v>
+        <v>168.0627882618621</v>
       </c>
       <c r="H28">
-        <v>1877.584988378415</v>
+        <v>2585.936449224565</v>
       </c>
       <c r="I28">
-        <v>-511.9306227974423</v>
+        <v>-238.5562765466466</v>
       </c>
       <c r="J28">
-        <v>573.188878127307</v>
+        <v>605.875962802221</v>
       </c>
       <c r="K28">
-        <v>3609.333835818181</v>
+        <v>4223.460577137218</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.60220488391254</v>
+        <v>71.21750386777595</v>
       </c>
       <c r="G29">
-        <v>248.177555664253</v>
+        <v>181.0465278388279</v>
       </c>
       <c r="H29">
-        <v>1894.277141319762</v>
+        <v>2608.926006008538</v>
       </c>
       <c r="I29">
-        <v>-446.9235899754827</v>
+        <v>-208.2634301945182</v>
       </c>
       <c r="J29">
-        <v>535.2510249238335</v>
+        <v>565.774638067168</v>
       </c>
       <c r="K29">
-        <v>3500.073960926444</v>
+        <v>4095.61017724103</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.2637376825666</v>
+        <v>69.50314212101139</v>
       </c>
       <c r="G30">
-        <v>265.975592390266</v>
+        <v>194.0302674157936</v>
       </c>
       <c r="H30">
-        <v>1910.157112758475</v>
+        <v>2630.796971749203</v>
       </c>
       <c r="I30">
-        <v>-380.3158187756563</v>
+        <v>-177.2246503698764</v>
       </c>
       <c r="J30">
-        <v>497.3131717203599</v>
+        <v>525.673313332115</v>
       </c>
       <c r="K30">
-        <v>3372.437759587403</v>
+        <v>3946.256726135616</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.01743440844642</v>
+        <v>67.9068275786225</v>
       </c>
       <c r="G31">
-        <v>283.773629116279</v>
+        <v>207.0140069927594</v>
       </c>
       <c r="H31">
-        <v>1925.300284832821</v>
+        <v>2651.653167802278</v>
       </c>
       <c r="I31">
-        <v>-312.0678924880601</v>
+        <v>-145.4215691472067</v>
       </c>
       <c r="J31">
-        <v>459.3753185168865</v>
+        <v>485.5719885970622</v>
       </c>
       <c r="K31">
-        <v>3226.42523180106</v>
+        <v>3775.400223820977</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.85318790165344</v>
+        <v>66.41561459033031</v>
       </c>
       <c r="G32">
-        <v>301.571665842292</v>
+        <v>219.9977465697252</v>
       </c>
       <c r="H32">
-        <v>1939.772008653066</v>
+        <v>2671.584600116405</v>
       </c>
       <c r="I32">
-        <v>-242.1394238025729</v>
+        <v>-112.835366307727</v>
       </c>
       <c r="J32">
-        <v>421.437465313413</v>
+        <v>445.4706638620091</v>
       </c>
       <c r="K32">
-        <v>3062.036377567413</v>
+        <v>3583.040670297112</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.76237679169586</v>
+        <v>65.01846056371195</v>
       </c>
       <c r="G33">
-        <v>319.3697025683049</v>
+        <v>232.981486146691</v>
       </c>
       <c r="H33">
-        <v>1953.629308725345</v>
+        <v>2690.669806680447</v>
       </c>
       <c r="I33">
-        <v>-170.4890309087166</v>
+        <v>-79.44675820208187</v>
       </c>
       <c r="J33">
-        <v>383.4996121099396</v>
+        <v>405.3693391269563</v>
       </c>
       <c r="K33">
-        <v>2879.271196886464</v>
+        <v>3369.178065564023</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.73759612444267</v>
+        <v>63.70588094054594</v>
       </c>
       <c r="G34">
-        <v>337.1677392943179</v>
+        <v>245.9652257236567</v>
       </c>
       <c r="H34">
-        <v>1966.92224006939</v>
+        <v>2708.977726637399</v>
       </c>
       <c r="I34">
-        <v>-97.07431300700185</v>
+        <v>-45.23598633879138</v>
       </c>
       <c r="J34">
-        <v>345.5617589064661</v>
+        <v>365.2680143919033</v>
       </c>
       <c r="K34">
-        <v>2678.129689758211</v>
+        <v>3133.812409621708</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.77244534172778</v>
+        <v>62.46967763270064</v>
       </c>
       <c r="G35">
-        <v>354.9657760203309</v>
+        <v>258.9489653006225</v>
       </c>
       <c r="H35">
-        <v>1979.694979638725</v>
+        <v>2726.569203461744</v>
       </c>
       <c r="I35">
-        <v>-21.8518252172597</v>
+        <v>-10.18280569170052</v>
       </c>
       <c r="J35">
-        <v>307.6239057029925</v>
+        <v>325.1666896568503</v>
       </c>
       <c r="K35">
-        <v>2458.611856182656</v>
+        <v>2876.943702470166</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.86135972600653</v>
+        <v>61.30272312978169</v>
       </c>
       <c r="G36">
-        <v>372.7638127463439</v>
+        <v>271.9327048775883</v>
       </c>
       <c r="H36">
-        <v>1991.986712120451</v>
+        <v>2743.498204942558</v>
       </c>
       <c r="I36">
-        <v>55.22294713088525</v>
+        <v>25.73352728049017</v>
       </c>
       <c r="J36">
-        <v>269.6860524995192</v>
+        <v>285.0653649217975</v>
       </c>
       <c r="K36">
-        <v>2220.717696159797</v>
+        <v>2598.571944109401</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.99947516179758</v>
+        <v>60.19878728023615</v>
       </c>
       <c r="G37">
-        <v>390.5618494723568</v>
+        <v>284.9164444545541</v>
       </c>
       <c r="H37">
-        <v>2003.832354917505</v>
+        <v>2759.812821677885</v>
       </c>
       <c r="I37">
-        <v>134.1956148406128</v>
+        <v>62.53426690970055</v>
       </c>
       <c r="J37">
-        <v>231.7481992960456</v>
+        <v>244.9640401867445</v>
       </c>
       <c r="K37">
-        <v>1964.447209689636</v>
+        <v>2298.697134539409</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.18251870383107</v>
+        <v>59.15239712670704</v>
       </c>
       <c r="G38">
-        <v>408.3598861983698</v>
+        <v>297.9001840315199</v>
       </c>
       <c r="H38">
-        <v>2015.263156125105</v>
+        <v>2775.556090648149</v>
       </c>
       <c r="I38">
-        <v>215.112911839171</v>
+        <v>100.2411908962209</v>
       </c>
       <c r="J38">
-        <v>193.8103460925723</v>
+        <v>204.8627154516917</v>
       </c>
       <c r="K38">
-        <v>1689.800396772172</v>
+        <v>1977.319273760193</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.40671932903986</v>
+        <v>58.15872259365274</v>
       </c>
       <c r="G39">
-        <v>426.1579229243828</v>
+        <v>310.8839236084856</v>
       </c>
       <c r="H39">
-        <v>2026.307191299396</v>
+        <v>2790.766679399385</v>
       </c>
       <c r="I39">
-        <v>298.0227228337696</v>
+        <v>138.876613196175</v>
       </c>
       <c r="J39">
-        <v>155.8724928890987</v>
+        <v>164.7613907166387</v>
       </c>
       <c r="K39">
-        <v>1396.777257407404</v>
+        <v>1634.43836177175</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.66873461686176</v>
+        <v>57.21348257657727</v>
       </c>
       <c r="G40">
-        <v>443.9559596503958</v>
+        <v>323.8676631854514</v>
       </c>
       <c r="H40">
-        <v>2036.989778902426</v>
+        <v>2805.479458222019</v>
       </c>
       <c r="I40">
-        <v>382.9741116484835</v>
+        <v>178.463397226329</v>
       </c>
       <c r="J40">
-        <v>117.9346396856252</v>
+        <v>124.6600659815857</v>
       </c>
       <c r="K40">
-        <v>1085.377791595334</v>
+        <v>1270.054398574083</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.96559010476231</v>
+        <v>56.3128672661845</v>
       </c>
       <c r="G41">
-        <v>461.7539963764087</v>
+        <v>336.8514027624172</v>
       </c>
       <c r="H41">
-        <v>2047.333829893995</v>
+        <v>2819.725981632305</v>
       </c>
       <c r="I41">
-        <v>470.0173502589137</v>
+        <v>219.0249693940514</v>
       </c>
       <c r="J41">
-        <v>79.99678648215182</v>
+        <v>84.55874124653289</v>
       </c>
       <c r="K41">
-        <v>755.6019993359605</v>
+        <v>884.1673841671901</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.29462880893519</v>
+        <v>55.45347349249403</v>
       </c>
       <c r="G42">
-        <v>479.5520331024217</v>
+        <v>349.835142339383</v>
       </c>
       <c r="H42">
-        <v>2057.360143612655</v>
+        <v>2833.534895879556</v>
       </c>
       <c r="I42">
-        <v>559.2039485418165</v>
+        <v>260.5853329604427</v>
       </c>
       <c r="J42">
-        <v>42.05893327867827</v>
+        <v>44.45741651147988</v>
       </c>
       <c r="K42">
-        <v>407.4498806292835</v>
+        <v>476.7773185510711</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.65346895656031</v>
+        <v>54.63225058664516</v>
       </c>
       <c r="G43">
-        <v>497.3500698284348</v>
+        <v>362.8188819163488</v>
       </c>
       <c r="H43">
-        <v>2067.087659553852</v>
+        <v>2846.932285711949</v>
       </c>
       <c r="I43">
-        <v>650.5866847572692</v>
+        <v>303.1690822448226</v>
       </c>
       <c r="J43">
-        <v>4.121080075204731</v>
+        <v>4.356091776426887</v>
       </c>
       <c r="K43">
-        <v>40.92143547530376</v>
+        <v>47.88420172572702</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.03996839668269</v>
+        <v>53.84645479694242</v>
       </c>
       <c r="G44">
-        <v>515.1481065544477</v>
+        <v>375.8026214933145</v>
       </c>
       <c r="H44">
-        <v>2076.533672705928</v>
+        <v>2859.941970951765</v>
       </c>
       <c r="I44">
-        <v>744.2196367814507</v>
+        <v>346.8014171789991</v>
       </c>
       <c r="J44">
-        <v>-33.81677312826864</v>
+        <v>-35.74523295862593</v>
       </c>
       <c r="K44">
-        <v>-343.9833361259779</v>
+        <v>-402.5119663088412</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.45219447767771</v>
+        <v>53.09361070672136</v>
       </c>
       <c r="G45">
-        <v>532.9461432804607</v>
+        <v>388.7863610702803</v>
       </c>
       <c r="H45">
-        <v>2085.714018595846</v>
+        <v>2872.585761352824</v>
       </c>
       <c r="I45">
-        <v>840.158214108492</v>
+        <v>391.5081582199178</v>
       </c>
       <c r="J45">
-        <v>-71.75462633174217</v>
+        <v>-75.84655769367893</v>
       </c>
       <c r="K45">
-        <v>-747.2644341745637</v>
+        <v>-874.4111855526361</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.88839842611863</v>
+        <v>52.37147841778829</v>
       </c>
       <c r="G46">
-        <v>550.7441800064737</v>
+        <v>401.7701006472461</v>
       </c>
       <c r="H46">
-        <v>2094.643233017996</v>
+        <v>2884.883676589736</v>
       </c>
       <c r="I46">
-        <v>938.4591906403394</v>
+        <v>437.3157616295218</v>
       </c>
       <c r="J46">
-        <v>-109.6924795352157</v>
+        <v>-115.9478824287319</v>
       </c>
       <c r="K46">
-        <v>-1168.921858670454</v>
+        <v>-1367.813456005658</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.34699345325694</v>
+        <v>51.67802550833421</v>
       </c>
       <c r="G47">
-        <v>568.5422167324866</v>
+        <v>414.7538402242119</v>
       </c>
       <c r="H47">
-        <v>2103.33469049205</v>
+        <v>2896.854136951403</v>
       </c>
       <c r="I47">
-        <v>1039.180738284043</v>
+        <v>484.2513351308648</v>
       </c>
       <c r="J47">
-        <v>-147.6303327386893</v>
+        <v>-156.0492071637849</v>
       </c>
       <c r="K47">
-        <v>-1608.955609613645</v>
+        <v>-1882.718777667903</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.82653596481784</v>
+        <v>51.01140296569744</v>
       </c>
       <c r="G48">
-        <v>586.3402534584995</v>
+        <v>427.7375798011776</v>
       </c>
       <c r="H48">
-        <v>2111.800724761074</v>
+        <v>2908.514129299105</v>
       </c>
       <c r="I48">
-        <v>1142.382461376348</v>
+        <v>532.3426539497424</v>
       </c>
       <c r="J48">
-        <v>-185.5681859421624</v>
+        <v>-196.1505318988376</v>
       </c>
       <c r="K48">
-        <v>-2067.365687004137</v>
+        <v>-2419.127150539371</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.32570936740567</v>
+        <v>50.36992444496694</v>
       </c>
       <c r="G49">
-        <v>604.1382901845126</v>
+        <v>440.7213193781434</v>
       </c>
       <c r="H49">
-        <v>2120.052734054833</v>
+        <v>2919.879352042231</v>
       </c>
       <c r="I49">
-        <v>1248.125431955958</v>
+        <v>581.6181772513332</v>
       </c>
       <c r="J49">
-        <v>-223.506039145636</v>
+        <v>-236.2518566338906</v>
       </c>
       <c r="K49">
-        <v>-2544.152090841935</v>
+        <v>-2977.038574620067</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.84331005791942</v>
+        <v>49.75204832367145</v>
       </c>
       <c r="G50">
-        <v>621.9363269105255</v>
+        <v>453.7050589551092</v>
       </c>
       <c r="H50">
-        <v>2128.101273372833</v>
+        <v>2930.964342236687</v>
       </c>
       <c r="I50">
-        <v>1356.472225904341</v>
+        <v>632.1070649815753</v>
       </c>
       <c r="J50">
-        <v>-261.4438923491095</v>
+        <v>-276.3531813689436</v>
       </c>
       <c r="K50">
-        <v>-3039.314821127036</v>
+        <v>-3556.45304990999</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.3782352565634</v>
+        <v>49.15636211781811</v>
       </c>
       <c r="G51">
-        <v>639.7343636365384</v>
+        <v>466.6887985320749</v>
       </c>
       <c r="H51">
-        <v>2135.956135661692</v>
+        <v>2941.782587387839</v>
       </c>
       <c r="I51">
-        <v>1467.48695997648</v>
+        <v>683.8391951232494</v>
       </c>
       <c r="J51">
-        <v>-299.3817455525831</v>
+        <v>-316.4545061039966</v>
       </c>
       <c r="K51">
-        <v>-3552.853877859441</v>
+        <v>-4157.370576409138</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.92947240349933</v>
+        <v>48.58156890070504</v>
       </c>
       <c r="G52">
-        <v>657.5324003625516</v>
+        <v>479.6725381090408</v>
       </c>
       <c r="H52">
-        <v>2143.626423453026</v>
+        <v>2952.346624115031</v>
       </c>
       <c r="I52">
-        <v>1581.235329743464</v>
+        <v>736.8451813769758</v>
       </c>
       <c r="J52">
-        <v>-337.3195987560566</v>
+        <v>-356.5558308390496</v>
       </c>
       <c r="K52">
-        <v>-4084.769261039147</v>
+        <v>-4779.791154117511</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.49608988710766</v>
+        <v>48.02647542731149</v>
       </c>
       <c r="G53">
-        <v>675.3304370885645</v>
+        <v>492.6562776860065</v>
       </c>
       <c r="H53">
-        <v>2151.12061227623</v>
+        <v>2962.668125487936</v>
       </c>
       <c r="I53">
-        <v>1697.784648469375</v>
+        <v>791.1563912775858</v>
       </c>
       <c r="J53">
-        <v>-375.2574519595298</v>
+        <v>-396.6571555741022</v>
       </c>
       <c r="K53">
-        <v>-4635.060970666153</v>
+        <v>-5423.714783035104</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.07722891066486</v>
+        <v>47.48998171681645</v>
       </c>
       <c r="G54">
-        <v>693.1284738145774</v>
+        <v>505.6400172629723</v>
       </c>
       <c r="H54">
-        <v>2158.446606954015</v>
+        <v>2972.757978560564</v>
       </c>
       <c r="I54">
-        <v>1817.203886945508</v>
+        <v>846.8049647566024</v>
       </c>
       <c r="J54">
-        <v>-413.1953051630034</v>
+        <v>-436.7584803091552</v>
       </c>
       <c r="K54">
-        <v>-5203.729006740467</v>
+        <v>-6089.141463161928</v>
       </c>
     </row>
   </sheetData>
